--- a/target/classes/excel/testData.xlsx
+++ b/target/classes/excel/testData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicolle\eclipse-workspace\DataDrivenFramework\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47CD274-2F1C-4B1C-A435-8DBAABA975B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B06F8F3-7AD2-408B-B525-574E294E50E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{8BAA97C8-049B-4362-B615-43A6A114C06F}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7460" xr2:uid="{8BAA97C8-049B-4362-B615-43A6A114C06F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,15 +33,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Zimmermann</t>
+  </si>
+  <si>
+    <t>89046-305</t>
+  </si>
+  <si>
+    <t>alertText</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +418,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5E80B4-9AE9-44E6-AD2D-52301B40F741}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/target/classes/excel/testData.xlsx
+++ b/target/classes/excel/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicolle\eclipse-workspace\DataDrivenFramework\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B06F8F3-7AD2-408B-B525-574E294E50E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09029A1-8B36-4B9A-8246-2CA2EDBF68EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7460" xr2:uid="{8BAA97C8-049B-4362-B615-43A6A114C06F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{8BAA97C8-049B-4362-B615-43A6A114C06F}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="ADDCUSTOMER" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>firstName</t>
   </si>
@@ -58,6 +59,18 @@
   </si>
   <si>
     <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Anne Zimmermann</t>
+  </si>
+  <si>
+    <t>Real</t>
   </si>
 </sst>
 </file>
@@ -421,7 +434,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -464,4 +477,38 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACADF403-4737-4DD0-8D26-5E24A9AA5278}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/target/classes/excel/testData.xlsx
+++ b/target/classes/excel/testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicolle\eclipse-workspace\DataDrivenFramework\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09029A1-8B36-4B9A-8246-2CA2EDBF68EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8304D49-EDE3-41C7-917A-6B611D5ECAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{8BAA97C8-049B-4362-B615-43A6A114C06F}"/>
   </bookViews>
   <sheets>
-    <sheet name="ADDCUSTOMER" sheetId="1" r:id="rId1"/>
-    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
+    <sheet name="ADDCUSTOMERTEST" sheetId="1" r:id="rId1"/>
+    <sheet name="OPENACCOUNTTEST" sheetId="2" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>firstName</t>
   </si>
@@ -67,10 +68,43 @@
     <t>currency</t>
   </si>
   <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Marzano</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>openAccountTest</t>
+  </si>
+  <si>
+    <t>bankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>addCustomerTest</t>
+  </si>
+  <si>
+    <t>89046-306</t>
+  </si>
+  <si>
+    <t>89046-307</t>
+  </si>
+  <si>
+    <t>Account created successfully</t>
+  </si>
+  <si>
     <t>Anne Zimmermann</t>
   </si>
   <si>
-    <t>Real</t>
+    <t>Dollar</t>
   </si>
 </sst>
 </file>
@@ -87,7 +121,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFA9B7C6"/>
+      <color rgb="FFFFC66D"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -100,10 +134,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -112,11 +172,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5E80B4-9AE9-44E6-AD2D-52301B40F741}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -445,33 +507,65 @@
     <col min="4" max="4" width="39.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -481,34 +575,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACADF403-4737-4DD0-8D26-5E24A9AA5278}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D449B92-967C-4E10-AD25-8A0894BD0D4E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>